--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Cspg4</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H2">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.807706757844604</v>
+        <v>1.126590666666667</v>
       </c>
       <c r="N2">
-        <v>0.807706757844604</v>
+        <v>3.379772</v>
       </c>
       <c r="O2">
-        <v>0.06310806538694184</v>
+        <v>0.07667442839667946</v>
       </c>
       <c r="P2">
-        <v>0.06310806538694184</v>
+        <v>0.07667442839667946</v>
       </c>
       <c r="Q2">
-        <v>0.5145592867160667</v>
+        <v>0.7527169082546665</v>
       </c>
       <c r="R2">
-        <v>0.5145592867160667</v>
+        <v>6.774452174291999</v>
       </c>
       <c r="S2">
-        <v>0.01884028963661084</v>
+        <v>0.02006207465795548</v>
       </c>
       <c r="T2">
-        <v>0.01884028963661084</v>
+        <v>0.02006207465795548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H3">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.00375050465828</v>
+        <v>6.180051333333334</v>
       </c>
       <c r="N3">
-        <v>6.00375050465828</v>
+        <v>18.540154</v>
       </c>
       <c r="O3">
-        <v>0.4690874203230996</v>
+        <v>0.4206069848310508</v>
       </c>
       <c r="P3">
-        <v>0.4690874203230996</v>
+        <v>0.4206069848310508</v>
       </c>
       <c r="Q3">
-        <v>3.824761334846405</v>
+        <v>4.129120957699333</v>
       </c>
       <c r="R3">
-        <v>3.824761334846405</v>
+        <v>37.162088619294</v>
       </c>
       <c r="S3">
-        <v>0.1400414164115145</v>
+        <v>0.1100529721288868</v>
       </c>
       <c r="T3">
-        <v>0.1400414164115145</v>
+        <v>0.1100529721288868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H4">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I4">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J4">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.49681497602398</v>
+        <v>1.528966</v>
       </c>
       <c r="N4">
-        <v>1.49681497602398</v>
+        <v>4.586898</v>
       </c>
       <c r="O4">
-        <v>0.1169497425416473</v>
+        <v>0.1040596177090857</v>
       </c>
       <c r="P4">
-        <v>0.1169497425416473</v>
+        <v>0.1040596177090858</v>
       </c>
       <c r="Q4">
-        <v>0.9535639499465542</v>
+        <v>1.021558756342</v>
       </c>
       <c r="R4">
-        <v>0.9535639499465542</v>
+        <v>9.194028807077999</v>
       </c>
       <c r="S4">
-        <v>0.03491419058565561</v>
+        <v>0.02722748461269774</v>
       </c>
       <c r="T4">
-        <v>0.03491419058565561</v>
+        <v>0.02722748461269775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H5">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I5">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J5">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.49051588613228</v>
+        <v>0.743582</v>
       </c>
       <c r="N5">
-        <v>4.49051588613228</v>
+        <v>2.230746</v>
       </c>
       <c r="O5">
-        <v>0.3508547717483112</v>
+        <v>0.05060731151337401</v>
       </c>
       <c r="P5">
-        <v>0.3508547717483112</v>
+        <v>0.05060731151337401</v>
       </c>
       <c r="Q5">
-        <v>2.860737054523864</v>
+        <v>0.4968146467339999</v>
       </c>
       <c r="R5">
-        <v>2.860737054523864</v>
+        <v>4.471331820605999</v>
       </c>
       <c r="S5">
-        <v>0.1047442269002424</v>
+        <v>0.01324154197233883</v>
       </c>
       <c r="T5">
-        <v>0.1047442269002424</v>
+        <v>0.01324154197233883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.841166550712024</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H6">
-        <v>0.841166550712024</v>
+        <v>2.004411</v>
       </c>
       <c r="I6">
-        <v>0.3941876362691316</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J6">
-        <v>0.3941876362691316</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.807706757844604</v>
+        <v>5.113983333333333</v>
       </c>
       <c r="N6">
-        <v>0.807706757844604</v>
+        <v>15.34195</v>
       </c>
       <c r="O6">
-        <v>0.06310806538694184</v>
+        <v>0.3480516575498099</v>
       </c>
       <c r="P6">
-        <v>0.06310806538694184</v>
+        <v>0.3480516575498099</v>
       </c>
       <c r="Q6">
-        <v>0.6794159074829376</v>
+        <v>3.416841482383332</v>
       </c>
       <c r="R6">
-        <v>0.6794159074829376</v>
+        <v>30.75157334144999</v>
       </c>
       <c r="S6">
-        <v>0.02487641912439641</v>
+        <v>0.09106867158453885</v>
       </c>
       <c r="T6">
-        <v>0.02487641912439641</v>
+        <v>0.09106867158453888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H7">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J7">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.00375050465828</v>
+        <v>1.126590666666667</v>
       </c>
       <c r="N7">
-        <v>6.00375050465828</v>
+        <v>3.379772</v>
       </c>
       <c r="O7">
-        <v>0.4690874203230996</v>
+        <v>0.07667442839667946</v>
       </c>
       <c r="P7">
-        <v>0.4690874203230996</v>
+        <v>0.07667442839667946</v>
       </c>
       <c r="Q7">
-        <v>5.050154103338978</v>
+        <v>1.130421825993778</v>
       </c>
       <c r="R7">
-        <v>5.050154103338978</v>
+        <v>10.173796433944</v>
       </c>
       <c r="S7">
-        <v>0.1849084614207473</v>
+        <v>0.03012899912219945</v>
       </c>
       <c r="T7">
-        <v>0.1849084614207473</v>
+        <v>0.03012899912219945</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H8">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J8">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.49681497602398</v>
+        <v>6.180051333333334</v>
       </c>
       <c r="N8">
-        <v>1.49681497602398</v>
+        <v>18.540154</v>
       </c>
       <c r="O8">
-        <v>0.1169497425416473</v>
+        <v>0.4206069848310508</v>
       </c>
       <c r="P8">
-        <v>0.1169497425416473</v>
+        <v>0.4206069848310508</v>
       </c>
       <c r="Q8">
-        <v>1.259070690436192</v>
+        <v>6.20106762790089</v>
       </c>
       <c r="R8">
-        <v>1.259070690436192</v>
+        <v>55.80960865110799</v>
       </c>
       <c r="S8">
-        <v>0.04610014257477546</v>
+        <v>0.1652763214771418</v>
       </c>
       <c r="T8">
-        <v>0.04610014257477546</v>
+        <v>0.1652763214771418</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H9">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I9">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J9">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.49051588613228</v>
+        <v>1.528966</v>
       </c>
       <c r="N9">
-        <v>4.49051588613228</v>
+        <v>4.586898</v>
       </c>
       <c r="O9">
-        <v>0.3508547717483112</v>
+        <v>0.1040596177090857</v>
       </c>
       <c r="P9">
-        <v>0.3508547717483112</v>
+        <v>0.1040596177090858</v>
       </c>
       <c r="Q9">
-        <v>3.777271758855437</v>
+        <v>1.534165503710667</v>
       </c>
       <c r="R9">
-        <v>3.777271758855437</v>
+        <v>13.807489533396</v>
       </c>
       <c r="S9">
-        <v>0.1383026131492125</v>
+        <v>0.04088993157396959</v>
       </c>
       <c r="T9">
-        <v>0.1383026131492125</v>
+        <v>0.04088993157396961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.655695680519691</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H10">
-        <v>0.655695680519691</v>
+        <v>3.010202</v>
       </c>
       <c r="I10">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J10">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.807706757844604</v>
+        <v>0.743582</v>
       </c>
       <c r="N10">
-        <v>0.807706757844604</v>
+        <v>2.230746</v>
       </c>
       <c r="O10">
-        <v>0.06310806538694184</v>
+        <v>0.05060731151337401</v>
       </c>
       <c r="P10">
-        <v>0.06310806538694184</v>
+        <v>0.05060731151337401</v>
       </c>
       <c r="Q10">
-        <v>0.5296098322452708</v>
+        <v>0.7461106745213333</v>
       </c>
       <c r="R10">
-        <v>0.5296098322452708</v>
+        <v>6.714996070691999</v>
       </c>
       <c r="S10">
-        <v>0.0193913566259346</v>
+        <v>0.01988599949222904</v>
       </c>
       <c r="T10">
-        <v>0.0193913566259346</v>
+        <v>0.01988599949222904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.655695680519691</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H11">
-        <v>0.655695680519691</v>
+        <v>3.010202</v>
       </c>
       <c r="I11">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J11">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.00375050465828</v>
+        <v>5.113983333333333</v>
       </c>
       <c r="N11">
-        <v>6.00375050465828</v>
+        <v>15.34195</v>
       </c>
       <c r="O11">
-        <v>0.4690874203230996</v>
+        <v>0.3480516575498099</v>
       </c>
       <c r="P11">
-        <v>0.4690874203230996</v>
+        <v>0.3480516575498099</v>
       </c>
       <c r="Q11">
-        <v>3.936633272822349</v>
+        <v>5.131374285988888</v>
       </c>
       <c r="R11">
-        <v>3.936633272822349</v>
+        <v>46.18236857389999</v>
       </c>
       <c r="S11">
-        <v>0.1441375424908379</v>
+        <v>0.1367659114528518</v>
       </c>
       <c r="T11">
-        <v>0.1441375424908379</v>
+        <v>0.1367659114528518</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.655695680519691</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H12">
-        <v>0.655695680519691</v>
+        <v>0.060067</v>
       </c>
       <c r="I12">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455084</v>
       </c>
       <c r="J12">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455085</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.49681497602398</v>
+        <v>1.126590666666667</v>
       </c>
       <c r="N12">
-        <v>1.49681497602398</v>
+        <v>3.379772</v>
       </c>
       <c r="O12">
-        <v>0.1169497425416473</v>
+        <v>0.07667442839667946</v>
       </c>
       <c r="P12">
-        <v>0.1169497425416473</v>
+        <v>0.07667442839667946</v>
       </c>
       <c r="Q12">
-        <v>0.9814551143161084</v>
+        <v>0.02255697385822222</v>
       </c>
       <c r="R12">
-        <v>0.9814551143161084</v>
+        <v>0.203012764724</v>
       </c>
       <c r="S12">
-        <v>0.03593540938121625</v>
+        <v>0.000601208354214486</v>
       </c>
       <c r="T12">
-        <v>0.03593540938121625</v>
+        <v>0.0006012083542144861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.060067</v>
+      </c>
+      <c r="I13">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J13">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.180051333333334</v>
+      </c>
+      <c r="N13">
+        <v>18.540154</v>
+      </c>
+      <c r="O13">
+        <v>0.4206069848310508</v>
+      </c>
+      <c r="P13">
+        <v>0.4206069848310508</v>
+      </c>
+      <c r="Q13">
+        <v>0.1237390478131111</v>
+      </c>
+      <c r="R13">
+        <v>1.113651430318</v>
+      </c>
+      <c r="S13">
+        <v>0.003298002194592748</v>
+      </c>
+      <c r="T13">
+        <v>0.003298002194592748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.060067</v>
+      </c>
+      <c r="I14">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J14">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.528966</v>
+      </c>
+      <c r="N14">
+        <v>4.586898</v>
+      </c>
+      <c r="O14">
+        <v>0.1040596177090857</v>
+      </c>
+      <c r="P14">
+        <v>0.1040596177090858</v>
+      </c>
+      <c r="Q14">
+        <v>0.03061346690733333</v>
+      </c>
+      <c r="R14">
+        <v>0.275521202166</v>
+      </c>
+      <c r="S14">
+        <v>0.0008159371098197502</v>
+      </c>
+      <c r="T14">
+        <v>0.0008159371098197505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.060067</v>
+      </c>
+      <c r="I15">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J15">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.743582</v>
+      </c>
+      <c r="N15">
+        <v>2.230746</v>
+      </c>
+      <c r="O15">
+        <v>0.05060731151337401</v>
+      </c>
+      <c r="P15">
+        <v>0.05060731151337401</v>
+      </c>
+      <c r="Q15">
+        <v>0.01488824666466667</v>
+      </c>
+      <c r="R15">
+        <v>0.133994219982</v>
+      </c>
+      <c r="S15">
+        <v>0.000396814676058192</v>
+      </c>
+      <c r="T15">
+        <v>0.0003968146760581921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.060067</v>
+      </c>
+      <c r="I16">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J16">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.113983333333333</v>
+      </c>
+      <c r="N16">
+        <v>15.34195</v>
+      </c>
+      <c r="O16">
+        <v>0.3480516575498099</v>
+      </c>
+      <c r="P16">
+        <v>0.3480516575498099</v>
+      </c>
+      <c r="Q16">
+        <v>0.1023938789611111</v>
+      </c>
+      <c r="R16">
+        <v>0.92154491065</v>
+      </c>
+      <c r="S16">
+        <v>0.002729091935769908</v>
+      </c>
+      <c r="T16">
+        <v>0.002729091935769908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.585897</v>
+      </c>
+      <c r="I17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.126590666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.379772</v>
+      </c>
+      <c r="O17">
+        <v>0.07667442839667946</v>
+      </c>
+      <c r="P17">
+        <v>0.07667442839667946</v>
+      </c>
+      <c r="Q17">
+        <v>0.9710824750537779</v>
+      </c>
+      <c r="R17">
+        <v>8.739742275484</v>
+      </c>
+      <c r="S17">
+        <v>0.02588214626231004</v>
+      </c>
+      <c r="T17">
+        <v>0.02588214626231004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.585897</v>
+      </c>
+      <c r="I18">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J18">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.180051333333334</v>
+      </c>
+      <c r="N18">
+        <v>18.540154</v>
+      </c>
+      <c r="O18">
+        <v>0.4206069848310508</v>
+      </c>
+      <c r="P18">
+        <v>0.4206069848310508</v>
+      </c>
+      <c r="Q18">
+        <v>5.32699206757089</v>
+      </c>
+      <c r="R18">
+        <v>47.942928608138</v>
+      </c>
+      <c r="S18">
+        <v>0.1419796890304294</v>
+      </c>
+      <c r="T18">
+        <v>0.1419796890304294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="H13">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="I13">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="J13">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.49051588613228</v>
-      </c>
-      <c r="N13">
-        <v>4.49051588613228</v>
-      </c>
-      <c r="O13">
-        <v>0.3508547717483112</v>
-      </c>
-      <c r="P13">
-        <v>0.3508547717483112</v>
-      </c>
-      <c r="Q13">
-        <v>2.944411869841988</v>
-      </c>
-      <c r="R13">
-        <v>2.944411869841988</v>
-      </c>
-      <c r="S13">
-        <v>0.1078079316988563</v>
-      </c>
-      <c r="T13">
-        <v>0.1078079316988563</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.585897</v>
+      </c>
+      <c r="I19">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J19">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.528966</v>
+      </c>
+      <c r="N19">
+        <v>4.586898</v>
+      </c>
+      <c r="O19">
+        <v>0.1040596177090857</v>
+      </c>
+      <c r="P19">
+        <v>0.1040596177090858</v>
+      </c>
+      <c r="Q19">
+        <v>1.317916197500667</v>
+      </c>
+      <c r="R19">
+        <v>11.861245777506</v>
+      </c>
+      <c r="S19">
+        <v>0.03512626441259865</v>
+      </c>
+      <c r="T19">
+        <v>0.03512626441259865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.585897</v>
+      </c>
+      <c r="I20">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J20">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.743582</v>
+      </c>
+      <c r="N20">
+        <v>2.230746</v>
+      </c>
+      <c r="O20">
+        <v>0.05060731151337401</v>
+      </c>
+      <c r="P20">
+        <v>0.05060731151337401</v>
+      </c>
+      <c r="Q20">
+        <v>0.6409421543513334</v>
+      </c>
+      <c r="R20">
+        <v>5.768479389162</v>
+      </c>
+      <c r="S20">
+        <v>0.01708295537274794</v>
+      </c>
+      <c r="T20">
+        <v>0.01708295537274794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.585897</v>
+      </c>
+      <c r="I21">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J21">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.113983333333333</v>
+      </c>
+      <c r="N21">
+        <v>15.34195</v>
+      </c>
+      <c r="O21">
+        <v>0.3480516575498099</v>
+      </c>
+      <c r="P21">
+        <v>0.3480516575498099</v>
+      </c>
+      <c r="Q21">
+        <v>4.408078053238889</v>
+      </c>
+      <c r="R21">
+        <v>39.67270247915</v>
+      </c>
+      <c r="S21">
+        <v>0.1174879825766494</v>
+      </c>
+      <c r="T21">
+        <v>0.1174879825766494</v>
       </c>
     </row>
   </sheetData>
